--- a/docs/Transformaciones de sistemas de coordenadas.xlsx
+++ b/docs/Transformaciones de sistemas de coordenadas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz K" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t xml:space="preserve">Matriz K 1</t>
   </si>
@@ -170,10 +170,10 @@
     <t xml:space="preserve">Matriz R*T</t>
   </si>
   <si>
+    <t xml:space="preserve">Matriz R</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vector T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matriz R</t>
   </si>
   <si>
     <t xml:space="preserve">MATRIZ K * R * T</t>
@@ -432,6 +432,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -442,10 +446,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -543,9 +543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>670320</xdr:colOff>
+      <xdr:colOff>581760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -560,7 +560,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2901240" cy="1678680"/>
+          <a:ext cx="2902680" cy="1678320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -586,9 +586,9 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.89"/>
@@ -1477,9 +1477,9 @@
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.44"/>
@@ -1807,14 +1807,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.89"/>
   </cols>
   <sheetData>
@@ -1932,9 +1933,54 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="n">
+        <f aca="false">COS(G2)</f>
+        <v>0.754709580222772</v>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11" t="n">
+        <f aca="false">-SIN(G2)</f>
+        <v>0.656059028990507</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="n">
+        <f aca="false">SIN(G2)</f>
+        <v>-0.656059028990507</v>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <f aca="false">COS(G2)</f>
+        <v>0.754709580222772</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1954,26 +2000,26 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="E1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="E1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
@@ -2025,11 +2071,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="E7" s="25" t="s">
         <v>31</v>
       </c>
@@ -2051,7 +2097,7 @@
       </c>
       <c r="E8" s="11" t="n">
         <f aca="false" t="array" ref="E8:E10">MMULT(A14:C16,E2:E4)</f>
-        <v>301870.343913298</v>
+        <v>301870.343913297</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,7 +2183,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="110" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/docs/Transformaciones de sistemas de coordenadas.xlsx
+++ b/docs/Transformaciones de sistemas de coordenadas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz K" sheetId="1" state="visible" r:id="rId2"/>
@@ -537,30 +537,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>581760</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:colOff>704160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Imagen 1" descr=""/>
+        <xdr:cNvPr id="0" name="Imagen 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="811" t="0" r="58600" b="0"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2902680" cy="1678320"/>
+          <a:off x="5400" y="5400"/>
+          <a:ext cx="3022200" cy="1616040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -586,7 +585,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.44"/>
@@ -1477,7 +1476,7 @@
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.11"/>
@@ -1807,13 +1806,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.89"/>
@@ -1872,43 +1871,43 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <f aca="false">E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="11" t="n">
         <f aca="false">COS(G2)</f>
         <v>0.754709580222772</v>
       </c>
-      <c r="B13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11" t="n">
+      <c r="C14" s="11" t="n">
+        <f aca="false">SIN(G2)</f>
+        <v>-0.656059028990507</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <f aca="false">F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="11" t="n">
         <f aca="false">-SIN(G2)</f>
         <v>0.656059028990507</v>
-      </c>
-      <c r="D13" s="11" t="n">
-        <f aca="false">E5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11" t="n">
-        <f aca="false">F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
-        <f aca="false">SIN(G2)</f>
-        <v>-0.656059028990507</v>
-      </c>
-      <c r="B15" s="11" t="n">
-        <v>0</v>
       </c>
       <c r="C15" s="11" t="n">
         <f aca="false">COS(G2)</f>
@@ -1942,41 +1941,42 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" s="11" t="n">
         <f aca="false">COS(G2)</f>
         <v>0.754709580222772</v>
       </c>
-      <c r="B19" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="11" t="n">
+      <c r="C20" s="11" t="n">
+        <f aca="false">SIN(G2)</f>
+        <v>-0.656059028990507</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" s="11" t="n">
         <f aca="false">-SIN(G2)</f>
         <v>0.656059028990507</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B20" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
-        <f aca="false">SIN(G2)</f>
-        <v>-0.656059028990507</v>
-      </c>
-      <c r="B21" s="11" t="n">
-        <v>0</v>
       </c>
       <c r="C21" s="11" t="n">
         <f aca="false">COS(G2)</f>
         <v>0.754709580222772</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A12:D12"/>
@@ -2000,11 +2000,11 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.56"/>
@@ -2085,7 +2085,7 @@
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
         <f aca="false">'Matriz RT'!A13</f>
-        <v>0.754709580222772</v>
+        <v>1</v>
       </c>
       <c r="B8" s="11" t="n">
         <f aca="false">'Matriz RT'!B13</f>
@@ -2093,11 +2093,11 @@
       </c>
       <c r="C8" s="11" t="n">
         <f aca="false">'Matriz RT'!C13</f>
-        <v>0.656059028990507</v>
+        <v>0</v>
       </c>
       <c r="E8" s="11" t="n">
         <f aca="false" t="array" ref="E8:E10">MMULT(A14:C16,E2:E4)</f>
-        <v>301870.343913297</v>
+        <v>93030.3128211789</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,24 +2107,24 @@
       </c>
       <c r="B9" s="11" t="n">
         <f aca="false">'Matriz RT'!B14</f>
-        <v>1</v>
+        <v>0.754709580222772</v>
       </c>
       <c r="C9" s="11" t="n">
         <f aca="false">'Matriz RT'!C14</f>
-        <v>0</v>
+        <v>-0.656059028990507</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>69738.027044822</v>
+        <v>-138647.774492372</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
         <f aca="false">'Matriz RT'!A15</f>
-        <v>-0.656059028990507</v>
+        <v>0</v>
       </c>
       <c r="B10" s="11" t="n">
         <f aca="false">'Matriz RT'!B15</f>
-        <v>0</v>
+        <v>0.656059028990507</v>
       </c>
       <c r="C10" s="11" t="n">
         <f aca="false">'Matriz RT'!C15</f>
@@ -2144,32 +2144,32 @@
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="n">
         <f aca="false" t="array" ref="A14:C16">MMULT(A2:C4,A8:C10)</f>
-        <v>408.648607130976</v>
+        <v>816.218107743333</v>
       </c>
       <c r="B14" s="12" t="n">
-        <v>0</v>
+        <v>207.35901833422</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>774.026522854609</v>
+        <v>238.539263644049</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="n">
-        <v>-155.441902644957</v>
+        <v>0</v>
       </c>
       <c r="B15" s="12" t="n">
-        <v>814.442823637778</v>
+        <v>770.109704188073</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>178.815453961082</v>
+        <v>-355.507114083005</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="n">
-        <v>-0.656059028990507</v>
+        <v>0</v>
       </c>
       <c r="B16" s="12" t="n">
-        <v>0</v>
+        <v>0.656059028990507</v>
       </c>
       <c r="C16" s="12" t="n">
         <v>0.754709580222772</v>

--- a/docs/Transformaciones de sistemas de coordenadas.xlsx
+++ b/docs/Transformaciones de sistemas de coordenadas.xlsx
@@ -1809,7 +1809,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1832,11 +1832,11 @@
         <v>24</v>
       </c>
       <c r="F2" s="11" t="n">
-        <v>-41</v>
+        <v>41</v>
       </c>
       <c r="G2" s="11" t="n">
         <f aca="false">RADIANS(F2)</f>
-        <v>-0.715584993317675</v>
+        <v>0.715584993317675</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="C14" s="11" t="n">
         <f aca="false">SIN(G2)</f>
-        <v>-0.656059028990507</v>
+        <v>0.656059028990507</v>
       </c>
       <c r="D14" s="11" t="n">
         <f aca="false">F5</f>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B15" s="11" t="n">
         <f aca="false">-SIN(G2)</f>
-        <v>0.656059028990507</v>
+        <v>-0.656059028990507</v>
       </c>
       <c r="C15" s="11" t="n">
         <f aca="false">COS(G2)</f>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="C20" s="11" t="n">
         <f aca="false">SIN(G2)</f>
-        <v>-0.656059028990507</v>
+        <v>0.656059028990507</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B21" s="11" t="n">
         <f aca="false">-SIN(G2)</f>
-        <v>0.656059028990507</v>
+        <v>-0.656059028990507</v>
       </c>
       <c r="C21" s="11" t="n">
         <f aca="false">COS(G2)</f>
@@ -2001,7 +2001,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E8" s="11" t="n">
         <f aca="false" t="array" ref="E8:E10">MMULT(A14:C16,E2:E4)</f>
-        <v>93030.3128211789</v>
+        <v>93030.312821179</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2111,10 +2111,10 @@
       </c>
       <c r="C9" s="11" t="n">
         <f aca="false">'Matriz RT'!C14</f>
-        <v>-0.656059028990507</v>
+        <v>0.656059028990507</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>-138647.774492372</v>
+        <v>278123.828582016</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B10" s="11" t="n">
         <f aca="false">'Matriz RT'!B15</f>
-        <v>0.656059028990507</v>
+        <v>-0.656059028990507</v>
       </c>
       <c r="C10" s="11" t="n">
         <f aca="false">'Matriz RT'!C15</f>
@@ -2147,7 +2147,7 @@
         <v>816.218107743333</v>
       </c>
       <c r="B14" s="12" t="n">
-        <v>207.35901833422</v>
+        <v>-207.35901833422</v>
       </c>
       <c r="C14" s="12" t="n">
         <v>238.539263644049</v>
@@ -2158,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="12" t="n">
-        <v>770.109704188073</v>
+        <v>459.22589889816</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>-355.507114083005</v>
+        <v>713.138022005169</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="12" t="n">
-        <v>0.656059028990507</v>
+        <v>-0.656059028990507</v>
       </c>
       <c r="C16" s="12" t="n">
         <v>0.754709580222772</v>
